--- a/test list.xlsx
+++ b/test list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.MAYTINH-L3JT85N\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Appointment time ko select được từ 9h tối trở đi. Lúc chạy được mặc định là 8h30, lúc chạy ko được thì ko có mặc định, select cũng không được luôn.)</t>
+  </si>
+  <si>
+    <t>Generate AssignedShift</t>
+  </si>
+  <si>
+    <t>Xóa hết dữ liệu trong bảng, nhập liệu như thế nào để hệ thống biết cách tự genarate thêm</t>
   </si>
 </sst>
 </file>
@@ -427,8 +433,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1579,8 +1585,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2236,7 +2242,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2273,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2291,7 +2299,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2713,11 +2721,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Huynh\Desktop\Data\GitHub_20012016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -206,12 +206,24 @@
   </si>
   <si>
     <t>Xóa hết dữ liệu trong bảng, nhập liệu như thế nào để hệ thống biết cách tự genarate thêm</t>
+  </si>
+  <si>
+    <t>Location/Index</t>
+  </si>
+  <si>
+    <t>bỏ ngăn dòng với server có nhiều vị trí</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>endTime sao chỉ có tới 5pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,8 +445,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1585,8 +1597,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2243,7 +2255,7 @@
   <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,97 +2744,113 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Huynh\Desktop\Data\GitHub_20012016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -218,12 +218,30 @@
   </si>
   <si>
     <t>endTime sao chỉ có tới 5pm</t>
+  </si>
+  <si>
+    <t>Bảng request, những hàng có highlight thì không hover được</t>
+  </si>
+  <si>
+    <t>Bảng list notification, những hàng highlight thì không hover được</t>
+  </si>
+  <si>
+    <t>View task</t>
+  </si>
+  <si>
+    <t>Những hàng highlight thì không hover  được</t>
+  </si>
+  <si>
+    <t>Giao diện hiển thị available ips và selected ips còn xấu. Trình bày sao cho đẹp</t>
+  </si>
+  <si>
+    <t>Hiển thị những thông tin liên quan đến request như. Số lượng requests đến trong ngày. Số lượng request đã xử lý rồi, chưa,.. Những request mới nhất. Thêm mới khách hàng,… có cần hiển thị không?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,8 +463,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -503,13 +521,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -567,13 +585,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -631,13 +649,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -695,13 +713,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -759,13 +777,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -823,13 +841,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -887,13 +905,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -951,13 +969,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1015,13 +1033,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1079,13 +1097,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1143,13 +1161,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>523875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1207,13 +1225,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1271,13 +1289,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1335,13 +1353,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1399,13 +1417,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>552450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1463,13 +1481,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1527,13 +1545,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1591,14 +1609,14 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1655,13 +1673,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1719,13 +1737,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1783,13 +1801,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1847,13 +1865,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>361950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1911,13 +1929,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1973,8 +1991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:G52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G53"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="6"/>
     <tableColumn id="2" name="Function" dataDxfId="5"/>
@@ -2252,10 +2270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G52"/>
+  <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,45 +2329,42 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2359,48 +2374,45 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -2410,63 +2422,63 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2477,13 +2489,14 @@
       <c r="E13" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -2495,71 +2508,74 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -2573,7 +2589,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
@@ -2584,66 +2600,66 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
@@ -2654,52 +2670,52 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2710,7 +2726,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>54</v>
@@ -2724,38 +2740,38 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,10 +2779,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
@@ -2776,31 +2792,59 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -2879,6 +2923,12 @@
         <v>50</v>
       </c>
       <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,8 +2952,8 @@
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2918,14 +2968,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2940,13 +2990,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2962,13 +3012,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2984,13 +3034,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3006,13 +3056,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3028,13 +3078,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3050,13 +3100,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3072,13 +3122,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3094,13 +3144,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3116,13 +3166,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3138,13 +3188,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>523875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3160,13 +3210,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3182,14 +3232,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3204,14 +3254,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3226,13 +3276,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>552450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3248,14 +3298,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3270,13 +3320,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3292,14 +3342,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3314,13 +3364,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3336,13 +3386,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>142875</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3358,14 +3408,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>304800</xdr:rowOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3380,13 +3430,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>361950</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3402,14 +3452,14 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>304800</xdr:rowOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,8 +527,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1295,8 +1295,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1359,8 +1359,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1487,8 +1487,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1807,8 +1807,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1935,8 +1935,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2272,8 +2272,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -2550,7 +2550,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -2272,8 +2272,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,6 +2339,9 @@
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2662,7 +2665,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2812,6 +2815,9 @@
       <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E36" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -2823,6 +2829,9 @@
       <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E37" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -2834,6 +2843,9 @@
       <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E38" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -2844,6 +2856,9 @@
       </c>
       <c r="C39" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Nếu select all, rồi send request thì hiện pop-up thông báo Error! You have to select at least one IP Address --&gt; bỏ popup, tìm cách validate bằng annotation. Và select all thì vẫn send request được bình thường</t>
   </si>
   <si>
-    <t>View Detail Request Change IP</t>
-  </si>
-  <si>
-    <t>Khi tạo request return ip, chọn defaultip thì hệ thống sẽ tự động select all, rồi gửi send request. Lúc này hệ thống redirect đến trạng request detail, thì bảng ip return có dữ liệu dư thừa cuối bảng "on" --&gt; why???</t>
-  </si>
-  <si>
     <t>Appointment time ko select được từ 9h tối trở đi. Lúc chạy được mặc định là 8h30, lúc chạy ko được thì ko có mặc định, select cũng không được luôn.)</t>
   </si>
   <si>
@@ -236,6 +230,81 @@
   </si>
   <si>
     <t>Hiển thị những thông tin liên quan đến request như. Số lượng requests đến trong ngày. Số lượng request đã xử lý rồi, chưa,.. Những request mới nhất. Thêm mới khách hàng,… có cần hiển thị không?</t>
+  </si>
+  <si>
+    <t>Nếu là request của khách thì hình khác, thông báo task của staff thì hình khác</t>
+  </si>
+  <si>
+    <t>Assign Shift</t>
+  </si>
+  <si>
+    <t>Set ngày đầu tiên bằng hệ thống, do manager làm</t>
+  </si>
+  <si>
+    <t>View Detail Request Return IP</t>
+  </si>
+  <si>
+    <t>làm sao để thằng shifthead/staff ca sau biết được ca trước còn lại những request nào chưa xử lý hoặc đang xử lý dang dở --&gt; filter mặc định status pending, waiting và processing</t>
+  </si>
+  <si>
+    <t>Tạo request, rồi hẹn appointment time là ngày khác, để đến lúc đó mới bấm nút Process được</t>
+  </si>
+  <si>
+    <t>Required filed</t>
+  </si>
+  <si>
+    <t>Những field bắt buộc nhập vào sẽ hiện (*)</t>
+  </si>
+  <si>
+    <t>Ca kiếp</t>
+  </si>
+  <si>
+    <t>Làm sao để biết Group nào đang làm việc trong ca</t>
+  </si>
+  <si>
+    <t>Click vào sự kiện ở schedule thì hiện ra popup ko rõ ý nghĩa</t>
+  </si>
+  <si>
+    <t>Validate nếu không chọn assign ip và assign location thì sao</t>
+  </si>
+  <si>
+    <t>List of IP Address</t>
+  </si>
+  <si>
+    <t>Select default radio button</t>
+  </si>
+  <si>
+    <t>Tự động suggest appointment time để khách hàng khỏi chọn. Nếu nó chọn buổi tối thì tự động suggest sang buổi sáng</t>
+  </si>
+  <si>
+    <t>Validate serial number và partnumber chỉ được nhập vào số</t>
+  </si>
+  <si>
+    <t>Request offline</t>
+  </si>
+  <si>
+    <t>Lúc request đến thì assignee là [Not aSSIGNED] --&gt; hiện ra shifthead ở ca hiện tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị location của server </t>
+  </si>
+  <si>
+    <t>Quy định hiển thị A1 U34. Chỉnh hết các trang đồng bộ</t>
+  </si>
+  <si>
+    <t>Description của request</t>
+  </si>
+  <si>
+    <t>Làm sao để lưu xuống hàng lúc nhập vào db</t>
+  </si>
+  <si>
+    <t>Number of Ips hiển thị dynamic chứ ko set cứng (cả 2 fields luôn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process request </t>
+  </si>
+  <si>
+    <t>thằng thực thi mới thấy content, máy thằng còn lại chỉ thấy request của khách hàng</t>
   </si>
 </sst>
 </file>
@@ -265,12 +334,18 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,6 +378,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,7 +441,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1679,8 +1766,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1744,7 +1831,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1991,8 +2078,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:G53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G71" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G71"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="6"/>
     <tableColumn id="2" name="Function" dataDxfId="5"/>
@@ -2270,10 +2357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G53"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,23 +2398,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2337,60 +2424,62 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2439,7 +2528,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2472,7 +2561,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -2528,21 +2617,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2556,7 +2647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2570,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2584,35 +2675,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2623,10 +2718,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2637,24 +2732,26 @@
         <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2668,7 +2765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2679,10 +2776,10 @@
         <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2693,10 +2790,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -2704,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -2724,88 +2821,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="C33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -2813,27 +2921,27 @@
         <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -2841,13 +2949,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -2855,95 +2963,339 @@
         <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="B40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="B41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="B42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>48</v>
-      </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>51</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,8 +3737,8 @@
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>323850</xdr:rowOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3408,7 +3760,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>thằng thực thi mới thấy content, máy thằng còn lại chỉ thấy request của khách hàng</t>
+  </si>
+  <si>
+    <t>Create request</t>
+  </si>
+  <si>
+    <t>Request change ip, return ip, return ip --&gt; lusc click chon thi click vao hang se select duoc</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2366,7 @@
   <dimension ref="A2:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,11 +3201,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Required filed</t>
   </si>
   <si>
-    <t>Những field bắt buộc nhập vào sẽ hiện (*)</t>
-  </si>
-  <si>
     <t>Ca kiếp</t>
   </si>
   <si>
@@ -311,6 +308,30 @@
   </si>
   <si>
     <t>Request change ip, return ip, return ip --&gt; lusc click chon thi click vao hang se select duoc</t>
+  </si>
+  <si>
+    <t>Maấy cái required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm hiddenfor để validate, thêm class required để hiện ra </t>
+  </si>
+  <si>
+    <t>Nếu ko có dữ liệu thì hiện thông báo không có dữ liệu</t>
+  </si>
+  <si>
+    <t>Mấy cái bảg (ví dụ bảng trả về rent rack,…)</t>
+  </si>
+  <si>
+    <t>Process Request Rent Rack</t>
+  </si>
+  <si>
+    <t>Validate số lượng rack khách muốn thuê</t>
+  </si>
+  <si>
+    <t>Validate khách không chọn rack khi bấm Complete</t>
+  </si>
+  <si>
+    <t>Những field bắt buộc nhập vào sẽ hiện (*) --&gt; thêm class="required"</t>
   </si>
 </sst>
 </file>
@@ -2365,8 +2386,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3044,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>74</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
@@ -3044,10 +3065,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
@@ -3056,18 +3077,20 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="C45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -3077,7 +3100,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
@@ -3090,10 +3113,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
@@ -3107,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
@@ -3123,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
@@ -3136,10 +3159,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>8</v>
@@ -3150,10 +3173,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -3164,10 +3187,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
@@ -3181,7 +3204,7 @@
         <v>31</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
@@ -3192,24 +3215,24 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -3219,25 +3242,57 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="B57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Generate AssignedShift</t>
   </si>
   <si>
-    <t>Xóa hết dữ liệu trong bảng, nhập liệu như thế nào để hệ thống biết cách tự genarate thêm</t>
-  </si>
-  <si>
     <t>Location/Index</t>
   </si>
   <si>
@@ -241,15 +238,6 @@
     <t>Set ngày đầu tiên bằng hệ thống, do manager làm</t>
   </si>
   <si>
-    <t>View Detail Request Return IP</t>
-  </si>
-  <si>
-    <t>làm sao để thằng shifthead/staff ca sau biết được ca trước còn lại những request nào chưa xử lý hoặc đang xử lý dang dở --&gt; filter mặc định status pending, waiting và processing</t>
-  </si>
-  <si>
-    <t>Tạo request, rồi hẹn appointment time là ngày khác, để đến lúc đó mới bấm nút Process được</t>
-  </si>
-  <si>
     <t>Required filed</t>
   </si>
   <si>
@@ -332,6 +320,18 @@
   </si>
   <si>
     <t>Những field bắt buộc nhập vào sẽ hiện (*) --&gt; thêm class="required"</t>
+  </si>
+  <si>
+    <t>Xóa hết dữ liệu trong bảng, nhập liệu như thế nào để hệ thống biết cách tự genarate thêm --&gt; thiet lap o file config</t>
+  </si>
+  <si>
+    <t>Tạo request, rồi hẹn appointment time là ngày khác, để đến lúc đó mới bấm nút Process được --&gt; push thong bao nhung request khach den???</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Default IP đang ko đc hiện lên</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,6 +423,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2105,8 +2123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G71" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:G71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G70"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="6"/>
     <tableColumn id="2" name="Function" dataDxfId="5"/>
@@ -2384,10 +2402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G71"/>
+  <dimension ref="A2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,23 +2443,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2451,30 +2469,30 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2500,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -2537,7 +2555,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -2730,7 +2748,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -2774,7 +2792,7 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -2860,7 +2878,7 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -2876,79 +2894,77 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>48</v>
@@ -2956,24 +2972,24 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>65</v>
@@ -2982,29 +2998,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
@@ -3012,15 +3030,15 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
@@ -3028,109 +3046,109 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>45</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>47</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>48</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
@@ -3138,233 +3156,233 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="C71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Default IP đang ko đc hiện lên</t>
+  </si>
+  <si>
+    <t>Server Index</t>
+  </si>
+  <si>
+    <t>Lỗi filter bảng list servers</t>
+  </si>
+  <si>
+    <t>liệt kê hết staff trong hệ thống ra --&gt; sửa lại trường hợp nó cho đổi ca trực</t>
   </si>
 </sst>
 </file>
@@ -2404,8 +2413,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,13 +3337,29 @@
       <c r="A61" s="5">
         <v>61</v>
       </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>62</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -340,7 +340,7 @@
     <t>Lỗi filter bảng list servers</t>
   </si>
   <si>
-    <t>liệt kê hết staff trong hệ thống ra --&gt; sửa lại trường hợp nó cho đổi ca trực</t>
+    <t>liệt kê hết staff trong hệ thống ra --&gt; sửa lại trường hợp nó cho đổi ca trực. Shifthead nếu được assign có thể assign cho bất cứ staff nào  trong hệ thống</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2414,7 @@
   <dimension ref="A2:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>62</v>
       </c>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>liệt kê hết staff trong hệ thống ra --&gt; sửa lại trường hợp nó cho đổi ca trực. Shifthead nếu được assign có thể assign cho bất cứ staff nào  trong hệ thống</t>
+  </si>
+  <si>
+    <t>Assign Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bổ sung ở dropdownlist tên nhóm </t>
   </si>
 </sst>
 </file>
@@ -2413,8 +2419,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,7 +3371,15 @@
       <c r="A63" s="5">
         <v>63</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t xml:space="preserve">Bổ sung ở dropdownlist tên nhóm </t>
+  </si>
+  <si>
+    <t>Trong quá trình đang process, nếu khách hàng bấm nút cancel thì sao? Lưu ý ip address (xem lại add server)</t>
+  </si>
+  <si>
+    <t>Complete request bring server away</t>
+  </si>
+  <si>
+    <t>Lúc trả ip, chưa đổi trạng thái ở bảng ipaddresspool, cột isdefault = false</t>
   </si>
 </sst>
 </file>
@@ -2419,8 +2428,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,43 +3390,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>64</v>
       </c>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>66</v>
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>67</v>
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>69</v>
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>70</v>
       </c>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -446,13 +446,13 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -493,10 +493,10 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="No" dataDxfId="4"/>
-    <tableColumn id="2" name="Function" dataDxfId="0"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="2" name="Function" dataDxfId="3"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" name="Assignee" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -768,8 +768,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -127,9 +127,6 @@
 có được chỉ định default IP là cái nào ko???</t>
   </si>
   <si>
-    <t>trường hợp hết ip thì sao?</t>
-  </si>
-  <si>
     <t>Realtime</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>Assign Shift</t>
   </si>
   <si>
-    <t>Set ngày đầu tiên bằng hệ thống, do manager làm</t>
-  </si>
-  <si>
     <t>Required filed</t>
   </si>
   <si>
@@ -350,6 +344,36 @@
   </si>
   <si>
     <t>Lúc trả ip, chưa đổi trạng thái ở bảng ipaddresspool, cột isdefault = false</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>trường hợp hết ip thì sao? --&gt; làm giống request assign ip</t>
+  </si>
+  <si>
+    <t>Ưu tiên, nhờ anh Tùng teamview</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Appointmenttime ko select ngày hiện tại được</t>
+  </si>
+  <si>
+    <t>Ưu tiên bổ sung</t>
+  </si>
+  <si>
+    <t>Sau khi xong hết chức năng, test lại tất cả trường hợp xử lý realtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set ngày đầu tiên bằng hệ thống, do manager làm </t>
+  </si>
+  <si>
+    <t>--&gt; học cách cập nhật file config và cách nhập liệu vào file config</t>
+  </si>
+  <si>
+    <t>Xem trang icon của adminlte</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,11 +464,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -483,20 +513,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A2:E69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F69" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F69">
     <filterColumn colId="4">
       <filters>
         <filter val="Pending"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="4"/>
-    <tableColumn id="2" name="Function" dataDxfId="3"/>
-    <tableColumn id="3" name="Description" dataDxfId="2"/>
-    <tableColumn id="4" name="Assignee" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="No" dataDxfId="5"/>
+    <tableColumn id="2" name="Function" dataDxfId="4"/>
+    <tableColumn id="3" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" name="Assignee" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,10 +797,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:F69"/>
+  <dimension ref="A2:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +810,7 @@
     <col min="3" max="3" width="59.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -800,8 +831,11 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -815,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -826,14 +860,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -847,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,6 +898,9 @@
       <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -873,11 +910,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -927,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -945,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -960,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -978,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -996,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1014,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1044,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -1056,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -1068,10 +1108,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1086,11 +1126,14 @@
         <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1101,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
@@ -1113,13 +1156,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1128,13 +1171,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -1143,14 +1186,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1158,13 +1201,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1176,10 +1219,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1188,17 +1231,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1206,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1221,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -1233,14 +1276,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -1248,14 +1291,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1263,14 +1306,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,10 +1321,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>8</v>
@@ -1293,10 +1336,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
@@ -1311,10 +1354,10 @@
         <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1323,13 +1366,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -1338,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -1356,41 +1399,47 @@
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="7" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,14 +1447,14 @@
         <v>42</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -1413,29 +1462,29 @@
         <v>43</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2"/>
     </row>
@@ -1447,11 +1496,11 @@
         <v>30</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1459,17 +1508,17 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>47</v>
       </c>
@@ -1477,14 +1526,14 @@
         <v>5</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>48</v>
       </c>
@@ -1492,11 +1541,11 @@
         <v>5</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1504,10 +1553,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>8</v>
@@ -1519,29 +1568,29 @@
         <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>51</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -1564,10 +1613,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
@@ -1579,10 +1628,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -1594,13 +1643,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -1609,13 +1658,13 @@
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -1624,10 +1673,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
@@ -1639,10 +1688,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>8</v>
@@ -1654,13 +1703,13 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -1669,13 +1718,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -1684,13 +1733,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -1699,10 +1748,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
@@ -1714,10 +1763,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>8</v>
@@ -1729,10 +1778,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
@@ -1744,21 +1793,29 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1788,6 +1845,11 @@
       </c>
       <c r="C69" s="3"/>
       <c r="F69" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -374,6 +374,33 @@
   </si>
   <si>
     <t>Xem trang icon của adminlte</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Click vào pending, dẫn đến trang list request và tự search  request ở trạng thái pending hôm nay. Processing request cà this week request cũng vậy</t>
+  </si>
+  <si>
+    <t>Click vào Tab running server --&gt; dẫn đến trang list server sẽ tự filter là "Running"</t>
+  </si>
+  <si>
+    <t>List request</t>
+  </si>
+  <si>
+    <t>Mặc định mới vào sẽ chọn request today + pending&amp;Processing</t>
+  </si>
+  <si>
+    <t>Test Lại tất cả những trường hợp có thể chạy real time</t>
+  </si>
+  <si>
+    <t>List customer request</t>
+  </si>
+  <si>
+    <t>Bổ sung status pending &amp; processing</t>
+  </si>
+  <si>
+    <t>set mặc định là pending&amp;processing</t>
   </si>
 </sst>
 </file>
@@ -429,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,16 +494,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -513,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F69" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F73">
     <filterColumn colId="4">
       <filters>
         <filter val="Pending"/>
@@ -526,8 +556,8 @@
     <tableColumn id="2" name="Function" dataDxfId="4"/>
     <tableColumn id="3" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -797,10 +827,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:F72"/>
+  <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -896,13 +926,13 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -914,7 +944,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>111</v>
@@ -1181,18 +1211,18 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1271,48 +1301,45 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="E30" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="E31" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1424,7 +1451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1483,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="2"/>
@@ -1548,20 +1575,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>49</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -1608,20 +1635,20 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>53</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -1818,36 +1845,112 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="B66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>71</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>72</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>73</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>74</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
     </row>

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>set mặc định là pending&amp;processing</t>
+  </si>
+  <si>
+    <t>Khách hàng có thể chọn appointment time trong ngày ko?? Nếu chọn thì khách hàng có thể chọn được thời gian trước thời điểm hiện tại ko? --&gt; lúc demo thế nào cũng bị gài. Hẹn đến ngay thời điểm hiện tại cũng ko được. Cái datetimepicker đang có khá nhiều vấn đề</t>
+  </si>
+  <si>
+    <t>Urgent</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +449,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -456,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -497,16 +509,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -556,8 +577,8 @@
     <tableColumn id="2" name="Function" dataDxfId="4"/>
     <tableColumn id="3" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
-    <tableColumn id="6" name="Column1" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,8 +850,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1375,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1905,7 +1926,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>71</v>
       </c>
@@ -1935,12 +1956,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+    <row r="72" spans="1:6" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>73</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="F72" s="2"/>
+      <c r="B72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">

--- a/test list.xlsx
+++ b/test list.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Huynh\Desktop\Data\GitHub_20012016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,8 +850,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>115</v>
